--- a/Summary Plot.xlsx
+++ b/Summary Plot.xlsx
@@ -351,7 +351,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,13 +387,6 @@
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -884,11 +877,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1713233808"/>
-        <c:axId val="1713234352"/>
+        <c:axId val="-1801478640"/>
+        <c:axId val="-1801480816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1713233808"/>
+        <c:axId val="-1801478640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,12 +1010,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1713234352"/>
+        <c:crossAx val="-1801480816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1713234352"/>
+        <c:axId val="-1801480816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1132,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1713233808"/>
+        <c:crossAx val="-1801478640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1854,11 +1847,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1713238704"/>
-        <c:axId val="1713228368"/>
+        <c:axId val="-1801472656"/>
+        <c:axId val="-1801480272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1713238704"/>
+        <c:axId val="-1801472656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,7 +1896,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="30000"/>
-                  <a:t>-4</a:t>
+                  <a:t>-5</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -1988,12 +1981,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1713228368"/>
+        <c:crossAx val="-1801480272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1713228368"/>
+        <c:axId val="-1801480272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,7 +2104,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1713238704"/>
+        <c:crossAx val="-1801472656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4216,7 +4209,7 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4393,11 +4386,11 @@
         <v>14804191.975805201</v>
       </c>
       <c r="O5" s="23">
-        <f t="shared" ref="O5:O30" si="0">M5*100000</f>
+        <f t="shared" ref="O5:O29" si="0">M5*100000</f>
         <v>1.4101978790849301</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" ref="P5:P40" si="1">N5/12000</f>
+        <f t="shared" ref="P5:P30" si="1">N5/12000</f>
         <v>1233.6826646504335</v>
       </c>
     </row>
